--- a/Docs/Memmap.xlsx
+++ b/Docs/Memmap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
   <si>
     <t>0000</t>
   </si>
@@ -118,13 +118,16 @@
   </si>
   <si>
     <t>KERNAL ROM</t>
+  </si>
+  <si>
+    <t>MPAGD Memory Map VIC20 Bitmap mode:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,13 +135,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -285,66 +326,129 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFFF66CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -640,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,545 +755,550 @@
     <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.140625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="3"/>
     <col min="7" max="7" width="9.140625" style="2"/>
     <col min="9" max="9" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="27">
+      <c r="E3" s="21"/>
+      <c r="F3" s="22">
         <v>256</v>
       </c>
-      <c r="G2" s="33">
-        <f>F2/1024</f>
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="6">
-        <f>SUM(G2:G4)</f>
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="28">
-        <v>256</v>
-      </c>
-      <c r="G3" s="34">
+      <c r="G3" s="13">
         <f>F3/1024</f>
         <v>0.25</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
+      <c r="H3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="4">
+        <f>SUM(G3:G5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26">
+        <v>256</v>
+      </c>
+      <c r="G4" s="14">
+        <f>F4/1024</f>
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="27"/>
+      <c r="D5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="29">
-        <f>HEX2DEC(A5)-F3-F2</f>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30">
+        <f>HEX2DEC(A6)-F4-F3</f>
         <v>0</v>
       </c>
-      <c r="G4" s="35">
-        <f>F4/1024</f>
+      <c r="G5" s="15">
+        <f>F5/1024</f>
         <v>0</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="H5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="17" t="s">
+      <c r="D6" s="40"/>
+      <c r="E6" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F6" s="42">
         <f>22*11</f>
         <v>242</v>
       </c>
-      <c r="G5" s="33">
-        <f>F5/1024</f>
+      <c r="G6" s="13">
+        <f>F6/1024</f>
         <v>0.236328125</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="6">
-        <f>SUM(G5:G6)</f>
+      <c r="H6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4">
+        <f>SUM(G6:G7)</f>
         <v>0.5</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="12"/>
-      <c r="D6" s="13" t="s">
+      <c r="J6" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="43"/>
+      <c r="D7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="30">
-        <f>HEX2DEC(A7)-HEX2DEC(A5)-F5</f>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46">
+        <f>HEX2DEC(A8)-HEX2DEC(A6)-F6</f>
         <v>270</v>
       </c>
-      <c r="G6" s="35">
-        <f>F6/1024</f>
+      <c r="G7" s="15">
+        <f>F7/1024</f>
         <v>0.263671875</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="H7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F8" s="34">
         <f>32*22</f>
         <v>704</v>
       </c>
-      <c r="G7" s="33">
-        <f t="shared" ref="G7:G8" si="0">F7/1024</f>
+      <c r="G8" s="13">
+        <f t="shared" ref="G8:G9" si="0">F8/1024</f>
         <v>0.6875</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="6">
-        <f>SUM(G7:G9)</f>
-        <v>3</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="H8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <f>SUM(G8:G10)</f>
+        <v>3</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="64"/>
+      <c r="D9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E9" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F9" s="67">
         <f>22*2</f>
         <v>44</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G9" s="14">
         <f t="shared" si="0"/>
         <v>4.296875E-2</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="12"/>
-      <c r="D9" s="13" t="s">
+      <c r="H9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="30">
-        <f>HEX2DEC(A10)-HEX2DEC(A7)-F8-F7</f>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38">
+        <f>HEX2DEC(A11)-HEX2DEC(A8)-F9-F8</f>
         <v>2324</v>
       </c>
-      <c r="G9" s="35">
-        <f>F9/1024</f>
+      <c r="G10" s="15">
+        <f>F10/1024</f>
         <v>2.26953125</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="H10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="17" t="s">
+      <c r="D11" s="48"/>
+      <c r="E11" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F11" s="50">
         <f>22*11*16</f>
         <v>3872</v>
       </c>
-      <c r="G10" s="33">
-        <f>F10/1024</f>
+      <c r="G11" s="13">
+        <f>F11/1024</f>
         <v>3.78125</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="6">
-        <f>SUM(G10:G12)</f>
+      <c r="H11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <f>SUM(G11:G13)</f>
         <v>4</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="J11" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C12" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="12"/>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="55"/>
+      <c r="D13" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="30">
-        <f>HEX2DEC(A13)-HEX2DEC(A10)-F11-F10</f>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58">
+        <f>HEX2DEC(A14)-HEX2DEC(A11)-F12-F11</f>
         <v>224</v>
       </c>
-      <c r="G12" s="35">
-        <f>F12/1024</f>
+      <c r="G13" s="15">
+        <f>F13/1024</f>
         <v>0.21875</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="H13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="6">
-        <f>SUM(G13:G14)</f>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="4">
+        <f>SUM(G14:G15)</f>
         <v>24</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="13" t="s">
+      <c r="J14" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="35"/>
+      <c r="D15" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="30">
-        <f>HEX2DEC(A15)-HEX2DEC(A13)</f>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38">
+        <f>HEX2DEC(A16)-HEX2DEC(A14)</f>
         <v>24576</v>
       </c>
-      <c r="G14" s="35">
-        <f>F14/1024</f>
+      <c r="G15" s="15">
+        <f>F15/1024</f>
         <v>24</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="36">
-        <v>4</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="24">
-        <v>4</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>3</v>
-      </c>
+      <c r="H15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="36">
-        <v>1</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="24">
-        <v>1</v>
-      </c>
-      <c r="J16" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="16">
+        <v>4</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="11">
+        <v>4</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="32">
-        <f>HEX2DEC(A18)-HEX2DEC(A17)</f>
-        <v>512</v>
-      </c>
-      <c r="G17" s="36">
-        <f>F17/1024</f>
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="24">
-        <f>SUM(G17)</f>
-        <v>0.5</v>
-      </c>
-      <c r="J17" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="74"/>
+      <c r="F18" s="75">
+        <f>HEX2DEC(A19)-HEX2DEC(A18)</f>
+        <v>512</v>
+      </c>
+      <c r="G18" s="16">
+        <f>F18/1024</f>
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="11">
+        <f>SUM(G18)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="17" t="s">
+      <c r="D19" s="40"/>
+      <c r="E19" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F19" s="42">
         <f>22*11</f>
         <v>242</v>
       </c>
-      <c r="G18" s="33">
-        <f>F18/1024</f>
+      <c r="G19" s="13">
+        <f>F19/1024</f>
         <v>0.236328125</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="6">
-        <f>SUM(G18:G19)</f>
+      <c r="H19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4">
+        <f>SUM(G19:G20)</f>
         <v>0.5</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="12"/>
-      <c r="D19" s="13" t="s">
+      <c r="J19" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="43"/>
+      <c r="D20" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="29">
-        <f>HEX2DEC(A20)-HEX2DEC(A18)-F18</f>
+      <c r="E20" s="45"/>
+      <c r="F20" s="63">
+        <f>HEX2DEC(A21)-HEX2DEC(A19)-F19</f>
         <v>270</v>
       </c>
-      <c r="G19" s="35">
-        <f>F19/1024</f>
+      <c r="G20" s="15">
+        <f>F20/1024</f>
         <v>0.263671875</v>
       </c>
-      <c r="H19" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="36">
-        <v>2</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="24">
-        <v>2</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>3</v>
-      </c>
+      <c r="H20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="16">
+        <v>2</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="11">
+        <v>2</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="6">
-        <f>SUM(G21:G22)</f>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="4">
+        <f>SUM(G22:G23)</f>
         <v>8</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="12"/>
-      <c r="D22" s="13" t="s">
+      <c r="J22" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="35"/>
+      <c r="D23" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="30">
-        <f>HEX2DEC(A23)-HEX2DEC(A21)</f>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38">
+        <f>HEX2DEC(A24)-HEX2DEC(A22)</f>
         <v>8192</v>
       </c>
-      <c r="G22" s="35">
-        <f>F22/1024</f>
+      <c r="G23" s="15">
+        <f>F23/1024</f>
         <v>8</v>
       </c>
-      <c r="H22" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="H23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C24" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="36">
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="16">
         <v>8</v>
       </c>
-      <c r="H23" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="24">
+      <c r="H24" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="11">
         <v>8</v>
       </c>
-      <c r="J23" s="25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="21" t="s">
+      <c r="J24" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="36">
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="16">
         <v>8</v>
       </c>
-      <c r="H24" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="24">
+      <c r="H25" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="11">
         <v>8</v>
       </c>
-      <c r="J24" s="25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I25" s="2">
-        <f>SUM(I2:I24)</f>
+      <c r="J25" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="2">
+        <f>SUM(I3:I25)</f>
         <v>64</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J26" s="18" t="s">
         <v>3</v>
       </c>
     </row>
